--- a/docs/Planning.xlsx
+++ b/docs/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frauc\Desktop\M306\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76CEEFBD-A22B-4349-8814-3050A81FE120}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4642DD95-C470-4F30-B5D9-63122B9C93FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="3195" windowWidth="21600" windowHeight="11835" xr2:uid="{B72BA16B-1597-4C8D-AE44-568AE196C04F}"/>
+    <workbookView minimized="1" xWindow="4545" yWindow="3465" windowWidth="21600" windowHeight="11835" xr2:uid="{B72BA16B-1597-4C8D-AE44-568AE196C04F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Taches à réaliser</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Base de données</t>
   </si>
   <si>
-    <t>Ajout des fuseau horaires + quelque villes</t>
-  </si>
-  <si>
     <t>Maquettes</t>
   </si>
   <si>
@@ -87,7 +84,67 @@
     <t>Implementation en C#</t>
   </si>
   <si>
-    <t>Creation des pages</t>
+    <t>Creation de la page Home</t>
+  </si>
+  <si>
+    <t>Ajout de l'anglais</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>Test de la page home</t>
+  </si>
+  <si>
+    <t>Test page DB + la DB</t>
+  </si>
+  <si>
+    <t>Creation de la fonction d'export</t>
+  </si>
+  <si>
+    <t>Cours 7</t>
+  </si>
+  <si>
+    <t>Cours 8</t>
+  </si>
+  <si>
+    <t>Cours 9</t>
+  </si>
+  <si>
+    <t>Immersion + explication du professeur</t>
+  </si>
+  <si>
+    <t>Product scope</t>
+  </si>
+  <si>
+    <t>Création des Maquettes</t>
+  </si>
+  <si>
+    <t>Creation du product scope</t>
+  </si>
+  <si>
+    <t>Documentation + peaufinage des documents</t>
+  </si>
+  <si>
+    <t>Documentation + Mise a jour du planning</t>
+  </si>
+  <si>
+    <t>Peaufinage des Documents</t>
+  </si>
+  <si>
+    <t>Verification pour le rendu</t>
+  </si>
+  <si>
+    <t>Creation de la DB</t>
+  </si>
+  <si>
+    <t>implementation de la DB</t>
+  </si>
+  <si>
+    <t>Implementation des fonction sur home (backend)</t>
+  </si>
+  <si>
+    <t>Ajout des fuseau horaires + ajout de la liste de ville</t>
   </si>
 </sst>
 </file>
@@ -109,7 +166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,6 +176,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -135,9 +198,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,93 +518,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C8719E-46A6-4CC8-A869-7A13C7DBC90F}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="I1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>180</v>
+      </c>
+      <c r="C2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>90</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B9" s="3">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2">
+        <v>90</v>
+      </c>
+      <c r="D12" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B13" s="2">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B15" s="2">
+        <v>40</v>
+      </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2">
+        <v>40</v>
+      </c>
+      <c r="G16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2">
+        <v>120</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>80</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2">
+        <v>120</v>
+      </c>
+      <c r="I19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>30</v>
+      </c>
+      <c r="J20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2">
+        <v>40</v>
+      </c>
+      <c r="J22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2">
+        <v>60</v>
+      </c>
+      <c r="J23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2">
+        <v>180</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <v>30</v>
+      </c>
+      <c r="G25">
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <v>30</v>
+      </c>
+      <c r="J25">
+        <v>30</v>
+      </c>
+      <c r="K25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Planning.xlsx
+++ b/docs/Planning.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frauc\Desktop\M306\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://naeeuro-my.sharepoint.com/personal/guillaume_frauchiger_cdl_ch/Documents/projets/M306/GIT/M306-Conversion-de-temps/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4642DD95-C470-4F30-B5D9-63122B9C93FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{4642DD95-C470-4F30-B5D9-63122B9C93FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{82D1C4FD-405E-474B-9F25-4A8F3047AE32}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4545" yWindow="3465" windowWidth="21600" windowHeight="11835" xr2:uid="{B72BA16B-1597-4C8D-AE44-568AE196C04F}"/>
+    <workbookView xWindow="1530" yWindow="1245" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B72BA16B-1597-4C8D-AE44-568AE196C04F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planning provisionel" sheetId="1" r:id="rId1"/>
+    <sheet name="Planning effectif" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>Taches à réaliser</t>
   </si>
@@ -145,13 +146,16 @@
   </si>
   <si>
     <t>Ajout des fuseau horaires + ajout de la liste de ville</t>
+  </si>
+  <si>
+    <t>Prépartion + Présentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +165,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -198,12 +210,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C8719E-46A6-4CC8-A869-7A13C7DBC90F}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,4 +851,406 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9879AE-0C83-47EB-B326-7F4DCC584479}">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>180</v>
+      </c>
+      <c r="C2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>90</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2">
+        <v>90</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>90</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>40</v>
+      </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2">
+        <v>40</v>
+      </c>
+      <c r="G16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2">
+        <v>120</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2">
+        <v>120</v>
+      </c>
+      <c r="I19">
+        <v>120</v>
+      </c>
+      <c r="J19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6">
+        <v>30</v>
+      </c>
+      <c r="J20" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2">
+        <v>40</v>
+      </c>
+      <c r="J22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2">
+        <v>60</v>
+      </c>
+      <c r="J23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2">
+        <v>180</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <v>30</v>
+      </c>
+      <c r="G25">
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <v>30</v>
+      </c>
+      <c r="J25">
+        <v>30</v>
+      </c>
+      <c r="K25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>